--- a/level-3/leetcode/phase-3-graph-advanced-data-structures/leetcode-phase-3-graph-advanced-data-structures.xlsx
+++ b/level-3/leetcode/phase-3-graph-advanced-data-structures/leetcode-phase-3-graph-advanced-data-structures.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95799300-6EF4-4234-94FC-506EB633E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A35555-198E-4049-AAE9-B051DF8885D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="graph,advanced-datastructures" sheetId="14" r:id="rId1"/>
+    <sheet name="graph-advanced-datastructures" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3034,7 +3034,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <f t="shared" ref="H100:H131" si="4">SUM(C100:G100)</f>
+        <f t="shared" ref="H100" si="4">SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="I100" s="1"/>
@@ -4398,7 +4398,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="6">
-        <f t="shared" ref="H165:H196" si="7">SUM(C165:G165)</f>
+        <f t="shared" ref="H165:H194" si="7">SUM(C165:G165)</f>
         <v>0</v>
       </c>
       <c r="I165" s="2"/>

--- a/level-3/leetcode/phase-3-graph-advanced-data-structures/leetcode-phase-3-graph-advanced-data-structures.xlsx
+++ b/level-3/leetcode/phase-3-graph-advanced-data-structures/leetcode-phase-3-graph-advanced-data-structures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A35555-198E-4049-AAE9-B051DF8885D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D0E8C-ACBC-430C-8E2E-AE3B691A8C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,106 +893,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1393,35 +1294,35 @@
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="5" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C74:C194)</f>
+        <f>AVERAGE(C4:C194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H194)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>COUNTA(I74:I855)</f>
+        <f>COUNTA(I4:I855)</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>COUNTA(J4:J975)</f>
+        <f>COUNTA(J4:J855)</f>
         <v>191</v>
       </c>
     </row>
@@ -1433,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1448,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1463,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1478,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1493,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -1508,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -1523,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -1538,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1553,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -1568,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1583,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1598,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -1613,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -1628,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -1643,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1658,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -1673,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -1688,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -1703,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -1718,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -1733,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -1748,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -1763,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -1778,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -1793,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -1808,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -1823,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -1838,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -1853,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
@@ -1868,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
@@ -1883,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -1898,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -1913,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H67" si="1">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
@@ -1928,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
@@ -1943,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -1958,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -1973,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -1988,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -2003,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
@@ -2018,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
@@ -2033,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
@@ -2048,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
@@ -2063,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
@@ -2078,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
@@ -2093,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
@@ -2108,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
@@ -2123,7 +2024,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
@@ -2138,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
@@ -2153,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
@@ -2168,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
@@ -2183,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -2198,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -2213,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -2228,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -2243,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
@@ -2258,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
@@ -2273,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
@@ -2288,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -2303,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
@@ -2318,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -2333,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -2348,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
@@ -2363,7 +2264,7 @@
         <v>12</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -2378,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -2393,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:H99" si="3">SUM(C68:G68)</f>
+        <f t="shared" ref="H68:H99" si="2">SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -2408,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
@@ -2423,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
@@ -2438,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -2453,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -2468,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -2488,7 +2389,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I74" s="1"/>
@@ -2509,7 +2410,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I75" s="1"/>
@@ -2530,7 +2431,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I76" s="1"/>
@@ -2551,7 +2452,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I77" s="1"/>
@@ -2572,7 +2473,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I78" s="1"/>
@@ -2593,7 +2494,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I79" s="1"/>
@@ -2614,7 +2515,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I80" s="1"/>
@@ -2635,7 +2536,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I81" s="1"/>
@@ -2656,7 +2557,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I82" s="1"/>
@@ -2677,7 +2578,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I83" s="1"/>
@@ -2698,7 +2599,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I84" s="1"/>
@@ -2719,7 +2620,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I85" s="1"/>
@@ -2740,7 +2641,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I86" s="1"/>
@@ -2761,7 +2662,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I87" s="1"/>
@@ -2782,7 +2683,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I88" s="1"/>
@@ -2803,7 +2704,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I89" s="1"/>
@@ -2824,7 +2725,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I90" s="1"/>
@@ -2845,7 +2746,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I91" s="1"/>
@@ -2866,7 +2767,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I92" s="1"/>
@@ -2887,7 +2788,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I93" s="1"/>
@@ -2908,7 +2809,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I94" s="1"/>
@@ -2929,7 +2830,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I95" s="1"/>
@@ -2950,7 +2851,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I96" s="1"/>
@@ -2971,7 +2872,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I97" s="1"/>
@@ -2992,7 +2893,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I98" s="1"/>
@@ -3013,7 +2914,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I99" s="1"/>
@@ -3034,7 +2935,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <f t="shared" ref="H100" si="4">SUM(C100:G100)</f>
+        <f t="shared" ref="H100" si="3">SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="I100" s="1"/>
@@ -3055,7 +2956,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <f t="shared" ref="H101:H132" si="5">SUM(C101:G101)</f>
+        <f t="shared" ref="H101:H132" si="4">SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="I101" s="1"/>
@@ -3076,7 +2977,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I102" s="1"/>
@@ -3097,7 +2998,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I103" s="1"/>
@@ -3118,7 +3019,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I104" s="1"/>
@@ -3139,7 +3040,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I105" s="1"/>
@@ -3160,7 +3061,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I106" s="1"/>
@@ -3181,7 +3082,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I107" s="1"/>
@@ -3202,7 +3103,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I108" s="1"/>
@@ -3223,7 +3124,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I109" s="1"/>
@@ -3244,7 +3145,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I110" s="1"/>
@@ -3265,7 +3166,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I111" s="1"/>
@@ -3286,7 +3187,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I112" s="1"/>
@@ -3307,7 +3208,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I113" s="1"/>
@@ -3328,7 +3229,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I114" s="1"/>
@@ -3349,7 +3250,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I115" s="1"/>
@@ -3370,7 +3271,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I116" s="1"/>
@@ -3391,7 +3292,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I117" s="1"/>
@@ -3412,7 +3313,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I118" s="1"/>
@@ -3433,7 +3334,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I119" s="1"/>
@@ -3454,7 +3355,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I120" s="1"/>
@@ -3475,7 +3376,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I121" s="1"/>
@@ -3496,7 +3397,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I122" s="1"/>
@@ -3517,7 +3418,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I123" s="1"/>
@@ -3538,7 +3439,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I124" s="1"/>
@@ -3559,7 +3460,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I125" s="1"/>
@@ -3580,7 +3481,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I126" s="1"/>
@@ -3601,7 +3502,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I127" s="1"/>
@@ -3622,7 +3523,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I128" s="1"/>
@@ -3643,7 +3544,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I129" s="1"/>
@@ -3664,7 +3565,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I130" s="1"/>
@@ -3685,7 +3586,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I131" s="1"/>
@@ -3706,7 +3607,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I132" s="1"/>
@@ -3727,7 +3628,7 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <f t="shared" ref="H133:H164" si="6">SUM(C133:G133)</f>
+        <f t="shared" ref="H133:H164" si="5">SUM(C133:G133)</f>
         <v>0</v>
       </c>
       <c r="I133" s="2"/>
@@ -3748,7 +3649,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J134" s="11" t="s">
@@ -3768,7 +3669,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I135" s="2"/>
@@ -3789,7 +3690,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I136" s="2"/>
@@ -3810,7 +3711,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I137" s="2"/>
@@ -3831,7 +3732,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I138" s="2"/>
@@ -3852,7 +3753,7 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I139" s="2"/>
@@ -3873,7 +3774,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I140" s="2"/>
@@ -3894,7 +3795,7 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I141" s="2"/>
@@ -3915,7 +3816,7 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I142" s="2"/>
@@ -3936,7 +3837,7 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I143" s="2"/>
@@ -3957,7 +3858,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I144" s="2"/>
@@ -3978,7 +3879,7 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I145" s="2"/>
@@ -3999,7 +3900,7 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I146" s="2"/>
@@ -4020,7 +3921,7 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I147" s="2"/>
@@ -4041,7 +3942,7 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I148" s="2"/>
@@ -4062,7 +3963,7 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I149" s="2"/>
@@ -4083,7 +3984,7 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I150" s="2"/>
@@ -4104,7 +4005,7 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I151" s="2"/>
@@ -4125,7 +4026,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I152" s="2"/>
@@ -4146,7 +4047,7 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I153" s="2"/>
@@ -4167,7 +4068,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I154" s="2"/>
@@ -4188,7 +4089,7 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I155" s="2"/>
@@ -4209,7 +4110,7 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I156" s="2"/>
@@ -4230,7 +4131,7 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I157" s="2"/>
@@ -4251,7 +4152,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I158" s="2"/>
@@ -4272,7 +4173,7 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I159" s="2"/>
@@ -4293,7 +4194,7 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I160" s="2"/>
@@ -4314,7 +4215,7 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I161" s="2"/>
@@ -4335,7 +4236,7 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I162" s="2"/>
@@ -4356,7 +4257,7 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I163" s="2"/>
@@ -4377,7 +4278,7 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I164" s="2"/>
@@ -4398,7 +4299,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="6">
-        <f t="shared" ref="H165:H194" si="7">SUM(C165:G165)</f>
+        <f t="shared" ref="H165:H194" si="6">SUM(C165:G165)</f>
         <v>0</v>
       </c>
       <c r="I165" s="2"/>
@@ -4419,7 +4320,7 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
@@ -4439,7 +4340,7 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I167" s="2"/>
@@ -4460,7 +4361,7 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I168" s="2"/>
@@ -4481,7 +4382,7 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I169" s="2"/>
@@ -4502,7 +4403,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I170" s="2"/>
@@ -4523,7 +4424,7 @@
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I171" s="2"/>
@@ -4544,7 +4445,7 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I172" s="2"/>
@@ -4565,7 +4466,7 @@
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I173" s="2"/>
@@ -4586,7 +4487,7 @@
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I174" s="2"/>
@@ -4607,7 +4508,7 @@
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I175" s="2"/>
@@ -4628,7 +4529,7 @@
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I176" s="2"/>
@@ -4649,7 +4550,7 @@
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I177" s="2"/>
@@ -4670,7 +4571,7 @@
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I178" s="2"/>
@@ -4691,7 +4592,7 @@
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I179" s="2"/>
@@ -4712,7 +4613,7 @@
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I180" s="2"/>
@@ -4733,7 +4634,7 @@
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I181" s="2"/>
@@ -4754,7 +4655,7 @@
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I182" s="2"/>
@@ -4775,7 +4676,7 @@
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I183" s="2"/>
@@ -4796,7 +4697,7 @@
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I184" s="2"/>
@@ -4817,7 +4718,7 @@
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I185" s="2"/>
@@ -4838,7 +4739,7 @@
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I186" s="2"/>
@@ -4859,7 +4760,7 @@
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I187" s="2"/>
@@ -4880,7 +4781,7 @@
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I188" s="2"/>
@@ -4901,7 +4802,7 @@
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I189" s="2"/>
@@ -4922,7 +4823,7 @@
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I190" s="2"/>
@@ -4943,7 +4844,7 @@
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I191" s="2"/>
@@ -4964,7 +4865,7 @@
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I192" s="2"/>
@@ -4985,7 +4886,7 @@
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I193" s="2"/>
@@ -5006,7 +4907,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I194" s="2"/>
@@ -5497,76 +5398,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I153:I155">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149:I152">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I140">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J160">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J164">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I185:I187">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I181:I184">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I168">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I172">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J177:J183">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J165:J171">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J126" r:id="rId1" xr:uid="{EEAAAE72-537A-4716-8378-0071E4426D50}"/>
     <hyperlink ref="J127" r:id="rId2" xr:uid="{168E4A93-0A0D-4E45-A951-52B2C1C28C0F}"/>
